--- a/www.eia.gov/forecasts/steo/xls/Fig31.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig31.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>State</t>
@@ -230,7 +230,7 @@
     <t>WY</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
 </sst>
 </file>
@@ -357,11 +357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446448816"/>
-        <c:axId val="446449376"/>
+        <c:axId val="422809280"/>
+        <c:axId val="422794160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="446448816"/>
+        <c:axId val="422809280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446449376"/>
+        <c:crossAx val="422794160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -378,7 +378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446449376"/>
+        <c:axId val="422794160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446448816"/>
+        <c:crossAx val="422809280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -530,7 +530,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
